--- a/biology/Médecine/1178_en_santé_et_médecine/1178_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1178_en_santé_et_médecine/1178_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1178_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1178_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1178 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1178_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1178_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Une bulle d'Alexandre III confirme les possessions du prieuré de Malton (en), dans le Yorkshire en Angleterre, dont les chanoines de Saint-Gilbert ont la charge de trois maisons hospitalières, une à Wheelgate, aujourd'hui quartier de Malton, une autre à Broughton et la troisième sur une île de la Derwent[1].
-Dans une chronique du diocèse de Cahors, le mot « apothecarius » semble désigner un clerc préposé « à la garde du matériel et des produits de toutes sortes, y compris les drogues médicinales, appartenant à la maison et conservés dans son « apothèque[2] » ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Une bulle d'Alexandre III confirme les possessions du prieuré de Malton (en), dans le Yorkshire en Angleterre, dont les chanoines de Saint-Gilbert ont la charge de trois maisons hospitalières, une à Wheelgate, aujourd'hui quartier de Malton, une autre à Broughton et la troisième sur une île de la Derwent.
+Dans une chronique du diocèse de Cahors, le mot « apothecarius » semble désigner un clerc préposé « à la garde du matériel et des produits de toutes sortes, y compris les drogues médicinales, appartenant à la maison et conservés dans son « apothèque » ».</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1178_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1178_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation de l'hôpital Saint-Abraham de Troyes par Henri Ier, dit « le Libéral », comte de Champagne[3].
-Fondation de la léproserie de Falaise, en Normandie[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation de l'hôpital Saint-Abraham de Troyes par Henri Ier, dit « le Libéral », comte de Champagne.
+Fondation de la léproserie de Falaise, en Normandie.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1178_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1178_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1166-1178 : fl. Gautier, médecin « habile et réputé », intercesseur pour l'abbaye prémontrée de Saint-Yved de Braine en Champagne « auprès de Raoul de Coucy et du comte de Boulogne, puis auprès de Gérard de Quierzy[5], comme aussi de Saint-Crépin de Soissons[6] ».
-1178-1198 : fl. Gautier, moine et médecin, cité dans une charte de l'abbaye Saint-Étienne de Dijon en Bourgogne[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1166-1178 : fl. Gautier, médecin « habile et réputé », intercesseur pour l'abbaye prémontrée de Saint-Yved de Braine en Champagne « auprès de Raoul de Coucy et du comte de Boulogne, puis auprès de Gérard de Quierzy, comme aussi de Saint-Crépin de Soissons ».
+1178-1198 : fl. Gautier, moine et médecin, cité dans une charte de l'abbaye Saint-Étienne de Dijon en Bourgogne.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1178_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1178_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roland de Crémone (mort en 1259), théologien dominicain, « probablement docteur en médecine quand il prit l'habit des prêcheurs[8] ».
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roland de Crémone (mort en 1259), théologien dominicain, « probablement docteur en médecine quand il prit l'habit des prêcheurs ».
 </t>
         </is>
       </c>
